--- a/xianxianzhou/evidence.xlsx
+++ b/xianxianzhou/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13080" tabRatio="500"/>
+    <workbookView windowWidth="17280" windowHeight="16220" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>TeamName</t>
   </si>
@@ -85,7 +85,7 @@
     <t>zxx#5132</t>
   </si>
   <si>
-    <t>Discord</t>
+    <t>uptick</t>
   </si>
   <si>
     <t>TxHash</t>
@@ -94,34 +94,64 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>C86ABA73B4842136DF74D851C26D892471629AB650B966E0689E5740E856ABE5</t>
+  </si>
+  <si>
+    <t>goniriscollectionid2</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>BDB30C01AD93DFE6378A0C0DDD05A99CBFA06949F3E429479C5D2955356F48B2</t>
+  </si>
+  <si>
+    <t>gonirisnftid111</t>
+  </si>
+  <si>
+    <t>F9FF370757CBD687FBF211011E055F9927D27329274AD764BCF226101530D34A</t>
+  </si>
+  <si>
+    <t>gonirisnftid222</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>5CF151376B5A7D2826CEE8023A4DA40914819757B9E7DA2B2682678E4EF2D02A</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>F1E4B1F7D787AE9F3E1DFC0C7B7F19B99822C0EB15F763BFCAD089C5196F008D</t>
+  </si>
+  <si>
+    <t>gonirisnftid22</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>5A9870A70BC5E772AEAD8B9AB31B5E6113F79738F7074EF5845EC983BB64D38C</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/goniriscollectionid2</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>198B9DC61534D59ACB3360F38575DA8368EAA116BA86EE0336B020544D8AE744</t>
+  </si>
+  <si>
+    <t>ibc/77FD297E40C990F527A3CD0880DC6EF55851AF4130E3746E59600E007F7F5313</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -144,14 +174,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -163,21 +199,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +228,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -206,10 +281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,9 +297,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,14 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,11 +342,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,53 +356,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +372,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -347,19 +390,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,197 +556,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,45 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,167 +639,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1221,27 +1223,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.8125" customWidth="1"/>
-    <col min="2" max="2" width="41.6339285714286" customWidth="1"/>
-    <col min="3" max="3" width="43.6339285714286" customWidth="1"/>
-    <col min="4" max="4" width="43.1785714285714" customWidth="1"/>
-    <col min="5" max="5" width="43.5446428571429" customWidth="1"/>
-    <col min="6" max="6" width="45.3660714285714" customWidth="1"/>
-    <col min="7" max="7" width="14.8125" customWidth="1"/>
-    <col min="8" max="8" width="21.4553571428571" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="44.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="43.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="46.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:8">
+    <row r="1" ht="13.95" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,41 +1267,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="12.75" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1309,12 +1309,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,23 +1322,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1346,12 +1346,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,23 +1359,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1383,12 +1383,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,23 +1396,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1420,12 +1420,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,23 +1433,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1457,46 +1457,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1504,46 +1504,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1551,46 +1551,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1598,46 +1598,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1645,46 +1645,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1692,130 +1692,130 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1823,46 +1823,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1870,21 +1870,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="15.2" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="16.4" customHeight="1" spans="1:1">
+    <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1906,21 +1906,21 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="15.2" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:1">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1942,21 +1942,21 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="15.2" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:1">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1978,21 +1978,21 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="15.2" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:1">
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2006,266 +2006,281 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="61.6071428571429" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="2:2">
+      <c r="B3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.9107142857143" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.1785714285714" customWidth="1"/>
-    <col min="4" max="4" width="14.3660714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2273,23 +2288,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2297,12 +2312,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
+    <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2310,16 +2325,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/xianxianzhou/evidence.xlsx
+++ b/xianxianzhou/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="16220" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
   <si>
     <t>TeamName</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>nft id</t>
+  </si>
+  <si>
+    <t>xianxiangon01</t>
+  </si>
+  <si>
+    <t>juno1qwphjana5pypvfej67cmy77lmwsrvdqh437lcnaj45p8k39e8jeq7m6np7</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -174,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -207,29 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,10 +233,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,6 +265,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -281,54 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +319,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,7 +342,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +384,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,37 +480,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,121 +534,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,20 +587,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +632,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,189 +670,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,15 +1229,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
@@ -1241,7 +1247,7 @@
     <col min="7" max="7" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.95" spans="1:8">
+    <row r="1" ht="17.55" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1309,12 +1315,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1346,12 +1352,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1383,12 +1389,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1420,12 +1426,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1449,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1457,12 +1463,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1470,22 +1476,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1504,12 +1510,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,22 +1523,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1551,12 +1557,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,22 +1570,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1598,12 +1604,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1611,22 +1617,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1645,12 +1651,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1658,22 +1664,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1692,12 +1698,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1705,22 +1711,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1739,12 +1745,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1776,12 +1782,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1789,22 +1795,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1823,12 +1829,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1836,22 +1842,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1870,21 +1876,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15.2" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1906,21 +1912,21 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15.2" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" ht="16.8" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1942,21 +1948,21 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15.2" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" ht="16.8" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1978,21 +1984,21 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15.2" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" ht="16.8" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2014,14 +2020,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="61.6071428571429" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:3">
+    <row r="1" ht="16.8" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:3">
+    <row r="2" ht="16.8" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:3">
+    <row r="3" ht="16.8" spans="1:3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2062,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2070,13 +2076,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" ht="16.8" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" ht="16.8" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="2:2">
+    <row r="3" ht="16.8" spans="2:2">
       <c r="B3" s="3"/>
     </row>
   </sheetData>
@@ -2115,7 +2121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2123,13 +2129,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" ht="16.8" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" ht="16.8" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2173,13 +2179,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" ht="16.8" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:4">
+    <row r="2" ht="16.8" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -2215,15 +2221,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2231,7 +2237,7 @@
     <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" ht="16.8" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:4">
+    <row r="2" ht="16.8" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2267,7 +2273,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="66.6607142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="16.8" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2275,12 +2339,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2301,41 +2365,4 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>